--- a/r5-ELGA-MOPED-main/ValueSet-moped-altersgruppe-valueset.xlsx
+++ b/r5-ELGA-MOPED-main/ValueSet-moped-altersgruppe-valueset.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="66">
   <si>
     <t>Property</t>
   </si>
@@ -56,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-11T08:15:28+00:00</t>
+    <t>2024-10-11T09:22:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -93,6 +94,123 @@
   </si>
   <si>
     <t>BooleanType[null]</t>
+  </si>
+  <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>0 Jahre</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>1 bis 4 Jahre</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>5 bis 9 Jahre</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>10 bis 14 Jahre</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>15 bis 19 Jahre</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>20 bis 24 Jahre</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>25 bis 29 Jahre</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>30 bis 34 Jahre</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>35 bis 39 Jahre</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>40 bis 44 Jahre</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>45 bis 49 Jahre</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>50 bis 54 Jahre</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>55 bis 59 Jahre</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>60 bis 64 Jahre</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>65 bis 69 Jahre</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>70 bis 74 Jahre</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>75 bis 79 Jahre</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>80 bis 84 Jahre</t>
+  </si>
+  <si>
+    <t>System URI</t>
+  </si>
+  <si>
+    <t>http://tbd.at/moped-ext-altersgruppe</t>
   </si>
 </sst>
 </file>
@@ -353,4 +471,189 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/r5-ELGA-MOPED-main/ValueSet-moped-altersgruppe-valueset.xlsx
+++ b/r5-ELGA-MOPED-main/ValueSet-moped-altersgruppe-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-11T09:22:23+00:00</t>
+    <t>2024-10-23T07:34:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/ValueSet-moped-altersgruppe-valueset.xlsx
+++ b/r5-ELGA-MOPED-main/ValueSet-moped-altersgruppe-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T07:34:13+00:00</t>
+    <t>2024-10-23T11:03:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/ValueSet-moped-altersgruppe-valueset.xlsx
+++ b/r5-ELGA-MOPED-main/ValueSet-moped-altersgruppe-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T11:03:56+00:00</t>
+    <t>2024-10-24T12:38:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/ValueSet-moped-altersgruppe-valueset.xlsx
+++ b/r5-ELGA-MOPED-main/ValueSet-moped-altersgruppe-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T12:38:05+00:00</t>
+    <t>2024-10-24T13:32:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/ValueSet-moped-altersgruppe-valueset.xlsx
+++ b/r5-ELGA-MOPED-main/ValueSet-moped-altersgruppe-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T13:32:35+00:00</t>
+    <t>2024-10-24T13:59:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/ValueSet-moped-altersgruppe-valueset.xlsx
+++ b/r5-ELGA-MOPED-main/ValueSet-moped-altersgruppe-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T13:59:53+00:00</t>
+    <t>2024-10-24T14:28:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/ValueSet-moped-altersgruppe-valueset.xlsx
+++ b/r5-ELGA-MOPED-main/ValueSet-moped-altersgruppe-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T14:28:41+00:00</t>
+    <t>2024-10-24T17:45:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/ValueSet-moped-altersgruppe-valueset.xlsx
+++ b/r5-ELGA-MOPED-main/ValueSet-moped-altersgruppe-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T17:45:49+00:00</t>
+    <t>2024-10-24T18:34:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/ValueSet-moped-altersgruppe-valueset.xlsx
+++ b/r5-ELGA-MOPED-main/ValueSet-moped-altersgruppe-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T18:34:10+00:00</t>
+    <t>2024-10-24T19:48:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
